--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Semi_Final/Cyient Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Semi_Final/Cyient Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Cyient(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Cyient(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Cyient(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>14.73</v>
-      </c>
-      <c r="C2">
-        <v>159.15</v>
       </c>
       <c r="D2">
         <v>159.15</v>
       </c>
       <c r="E2">
+        <v>159.15</v>
+      </c>
+      <c r="F2">
         <v>173.88</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.65</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>29.14</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>204.45</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>27.04</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>44.62</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>114.95</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>89.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>204.45</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>15.22</v>
-      </c>
-      <c r="C3">
-        <v>196.36</v>
       </c>
       <c r="D3">
         <v>196.36</v>
       </c>
       <c r="E3">
+        <v>196.36</v>
+      </c>
+      <c r="F3">
         <v>211.58</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>39.09</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>250.9</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>61.84</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>66.39</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>136.07</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>114.83</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>250.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>23.08</v>
-      </c>
-      <c r="C4">
-        <v>250.31</v>
       </c>
       <c r="D4">
         <v>250.31</v>
       </c>
       <c r="E4">
+        <v>250.31</v>
+      </c>
+      <c r="F4">
         <v>273.39</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.63</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>59.89</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>348.45</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>85.15000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>114</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>184.1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>164.34</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>348.45</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>124.13</v>
-      </c>
-      <c r="C5">
-        <v>501.5</v>
       </c>
       <c r="D5">
         <v>501.5</v>
       </c>
       <c r="E5">
+        <v>501.5</v>
+      </c>
+      <c r="F5">
         <v>625.62</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.16</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>81.81</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>735.49</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>186.73</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>217.86</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>487.04</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>248.45</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>735.49</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>27.61</v>
-      </c>
-      <c r="C6">
-        <v>662.29</v>
       </c>
       <c r="D6">
         <v>662.29</v>
       </c>
       <c r="E6">
+        <v>662.29</v>
+      </c>
+      <c r="F6">
         <v>689.9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>61.57</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>171.69</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>861.59</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>209.17</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>267.59</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>388.17</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>473.42</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>861.59</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>27.75</v>
-      </c>
-      <c r="C7">
-        <v>776.09</v>
       </c>
       <c r="D7">
         <v>776.09</v>
       </c>
       <c r="E7">
+        <v>776.09</v>
+      </c>
+      <c r="F7">
         <v>803.83</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>25.76</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>164.44</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>968.27</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>199.45</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>259.93</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>538.6799999999999</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>429.59</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>968.27</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>55.64</v>
-      </c>
-      <c r="C8">
-        <v>852.3099999999999</v>
       </c>
       <c r="D8">
         <v>852.3099999999999</v>
       </c>
       <c r="E8">
+        <v>852.3099999999999</v>
+      </c>
+      <c r="F8">
         <v>907.95</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>21.08</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>82.54000000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1023.25</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>252.65</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>276</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>491.15</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>532.1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1023.25</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>55.71</v>
-      </c>
-      <c r="C9">
-        <v>979.23</v>
       </c>
       <c r="D9">
         <v>979.23</v>
       </c>
       <c r="E9">
+        <v>979.23</v>
+      </c>
+      <c r="F9">
         <v>1034.94</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>25.65</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>123.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1197.09</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>264.82</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>305.19</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>529.77</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>667.3200000000001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1197.09</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>55.8</v>
-      </c>
-      <c r="C10">
-        <v>1110.83</v>
       </c>
       <c r="D10">
         <v>1110.83</v>
       </c>
       <c r="E10">
+        <v>1110.83</v>
+      </c>
+      <c r="F10">
         <v>1166.63</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>60.65</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>183.51</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1384.03</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>280.38</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>334.6</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>577.49</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>806.54</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1384.03</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>55.98</v>
-      </c>
-      <c r="C11">
-        <v>1329.83</v>
       </c>
       <c r="D11">
         <v>1329.83</v>
       </c>
       <c r="E11">
+        <v>1329.83</v>
+      </c>
+      <c r="F11">
         <v>1385.81</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>48.85</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>197.46</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1618.07</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>268.77</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>316.43</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>564.3</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1053.76</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1618.07</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>56.18</v>
-      </c>
-      <c r="C12">
-        <v>1524.43</v>
       </c>
       <c r="D12">
         <v>1524.43</v>
       </c>
       <c r="E12">
+        <v>1524.43</v>
+      </c>
+      <c r="F12">
         <v>1580.61</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>50.22</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>212.98</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1840.85</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>264.77</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>311.89</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>868.95</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>971.9</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1840.85</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>56.24</v>
-      </c>
-      <c r="C13">
-        <v>1626.77</v>
       </c>
       <c r="D13">
         <v>1626.77</v>
       </c>
       <c r="E13">
+        <v>1626.77</v>
+      </c>
+      <c r="F13">
         <v>1683.01</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>58.95</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>188.56</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1926.71</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>258.41</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>284.06</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>897.02</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1029.7</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1926.71</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>56.3</v>
-      </c>
-      <c r="C14">
-        <v>1825.9</v>
       </c>
       <c r="D14">
         <v>1825.9</v>
       </c>
       <c r="E14">
+        <v>1825.9</v>
+      </c>
+      <c r="F14">
         <v>1882.2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>77.40000000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>216.9</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2163.3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>231.3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>271.9</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>895.4</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1267.9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2163.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>56.3</v>
-      </c>
-      <c r="C15">
-        <v>2005.1</v>
       </c>
       <c r="D15">
         <v>2005.1</v>
       </c>
       <c r="E15">
+        <v>2005.1</v>
+      </c>
+      <c r="F15">
         <v>2061.4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>69.2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>269.6</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2401.1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>225.2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>300.8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>903.3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1497.8</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2401.1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>55.2</v>
-      </c>
-      <c r="C16">
-        <v>2181.3</v>
       </c>
       <c r="D16">
         <v>2181.3</v>
       </c>
       <c r="E16">
+        <v>2181.3</v>
+      </c>
+      <c r="F16">
         <v>2236.5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>51.3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>257.3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2580.1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>246</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>341.9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1018.4</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1561.7</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2580.1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>55</v>
-      </c>
-      <c r="C17">
-        <v>2043.3</v>
       </c>
       <c r="D17">
         <v>2043.3</v>
       </c>
       <c r="E17">
+        <v>2043.3</v>
+      </c>
+      <c r="F17">
         <v>2098.3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>114.9</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>389.6</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2672.7</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>407.3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>498.2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1238.2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1434.5</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2672.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>55</v>
-      </c>
-      <c r="C18">
-        <v>2342.2</v>
       </c>
       <c r="D18">
         <v>2342.2</v>
       </c>
       <c r="E18">
+        <v>2342.2</v>
+      </c>
+      <c r="F18">
         <v>2397.2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>168.2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>463.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3038.9</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>354.5</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>449.3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1158.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1880.4</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3038.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>55.2</v>
-      </c>
-      <c r="C19">
-        <v>2543.5</v>
       </c>
       <c r="D19">
         <v>2543.5</v>
       </c>
       <c r="E19">
+        <v>2543.5</v>
+      </c>
+      <c r="F19">
         <v>2598.7</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>112.6</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>393.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3186.2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>362.5</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>384.3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1435.3</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1750.9</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3186.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>55.3</v>
-      </c>
-      <c r="C20">
-        <v>2647.6</v>
       </c>
       <c r="D20">
         <v>2647.6</v>
       </c>
       <c r="E20">
+        <v>2647.6</v>
+      </c>
+      <c r="F20">
         <v>2702.9</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>138.7</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>491.8</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3397.9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>385.8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>474.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2022.4</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1375.5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3397.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>55.5</v>
-      </c>
-      <c r="C21">
-        <v>2878.8</v>
       </c>
       <c r="D21">
         <v>2878.8</v>
       </c>
       <c r="E21">
+        <v>2878.8</v>
+      </c>
+      <c r="F21">
         <v>2934.3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>101.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>485.4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3636.7</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>376.7</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>454.1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2000.1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1636.6</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3636.7</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>29.31</v>
+      </c>
+      <c r="D2">
+        <v>29.01</v>
+      </c>
+      <c r="E2">
+        <v>-34.3</v>
+      </c>
+      <c r="F2">
+        <v>-0.95</v>
+      </c>
+      <c r="G2">
+        <v>-0.39</v>
+      </c>
+      <c r="H2">
+        <v>-5.85</v>
+      </c>
+      <c r="I2">
+        <v>31.18</v>
+      </c>
+      <c r="J2">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>35.14</v>
+      </c>
+      <c r="D3">
+        <v>29.96</v>
+      </c>
+      <c r="E3">
+        <v>-39.87</v>
+      </c>
+      <c r="F3">
+        <v>7.01</v>
+      </c>
+      <c r="G3">
+        <v>-0.29</v>
+      </c>
+      <c r="H3">
+        <v>-2.62</v>
+      </c>
+      <c r="I3">
+        <v>29.97</v>
+      </c>
+      <c r="J3">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>76.25</v>
+      </c>
+      <c r="D4">
+        <v>67.31</v>
+      </c>
+      <c r="E4">
+        <v>-64.02</v>
+      </c>
+      <c r="F4">
+        <v>14.1</v>
+      </c>
+      <c r="G4">
+        <v>0.88</v>
+      </c>
+      <c r="H4">
+        <v>18.27</v>
+      </c>
+      <c r="I4">
+        <v>25.97</v>
+      </c>
+      <c r="J4">
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>72.02</v>
+      </c>
+      <c r="D5">
+        <v>52.13</v>
+      </c>
+      <c r="E5">
+        <v>-326.32</v>
+      </c>
+      <c r="F5">
+        <v>315.32</v>
+      </c>
+      <c r="G5">
+        <v>0.64</v>
+      </c>
+      <c r="H5">
+        <v>41.77</v>
+      </c>
+      <c r="I5">
+        <v>44.15</v>
+      </c>
+      <c r="J5">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="D6">
+        <v>107.13</v>
+      </c>
+      <c r="E6">
+        <v>101.53</v>
+      </c>
+      <c r="F6">
+        <v>-27.51</v>
+      </c>
+      <c r="G6">
+        <v>3.18</v>
+      </c>
+      <c r="H6">
+        <v>184.33</v>
+      </c>
+      <c r="I6">
+        <v>85.92</v>
+      </c>
+      <c r="J6">
+        <v>270.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>154.83</v>
+      </c>
+      <c r="D7">
+        <v>129.38</v>
+      </c>
+      <c r="E7">
+        <v>-327.54</v>
+      </c>
+      <c r="F7">
+        <v>-26.2</v>
+      </c>
+      <c r="G7">
+        <v>1.76</v>
+      </c>
+      <c r="H7">
+        <v>-222.6</v>
+      </c>
+      <c r="I7">
+        <v>270.62</v>
+      </c>
+      <c r="J7">
+        <v>48.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>131.43</v>
+      </c>
+      <c r="D8">
+        <v>56.75</v>
+      </c>
+      <c r="E8">
+        <v>55.48</v>
+      </c>
+      <c r="F8">
+        <v>-10.62</v>
+      </c>
+      <c r="G8">
+        <v>4.83</v>
+      </c>
+      <c r="H8">
+        <v>106.45</v>
+      </c>
+      <c r="I8">
+        <v>185.89</v>
+      </c>
+      <c r="J8">
+        <v>292.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>222.84</v>
+      </c>
+      <c r="D9">
+        <v>111.55</v>
+      </c>
+      <c r="E9">
+        <v>1.09</v>
+      </c>
+      <c r="F9">
+        <v>-31.27</v>
+      </c>
+      <c r="G9">
+        <v>13.89</v>
+      </c>
+      <c r="H9">
+        <v>95.26000000000001</v>
+      </c>
+      <c r="I9">
+        <v>292.34</v>
+      </c>
+      <c r="J9">
+        <v>387.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>261.4</v>
+      </c>
+      <c r="D10">
+        <v>142.91</v>
+      </c>
+      <c r="E10">
+        <v>-86.79000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-39.36</v>
+      </c>
+      <c r="G10">
+        <v>18.37</v>
+      </c>
+      <c r="H10">
+        <v>35.12</v>
+      </c>
+      <c r="I10">
+        <v>387.6</v>
+      </c>
+      <c r="J10">
+        <v>422.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>331.5</v>
+      </c>
+      <c r="D11">
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>33.28</v>
+      </c>
+      <c r="F11">
+        <v>-47.23</v>
+      </c>
+      <c r="G11">
+        <v>25.68</v>
+      </c>
+      <c r="H11">
+        <v>155.73</v>
+      </c>
+      <c r="I11">
+        <v>422.72</v>
+      </c>
+      <c r="J11">
+        <v>578.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>343.05</v>
+      </c>
+      <c r="D12">
+        <v>213.75</v>
+      </c>
+      <c r="E12">
+        <v>-303.27</v>
+      </c>
+      <c r="F12">
+        <v>-72.38</v>
+      </c>
+      <c r="G12">
+        <v>23.03</v>
+      </c>
+      <c r="H12">
+        <v>-138.87</v>
+      </c>
+      <c r="I12">
+        <v>578.45</v>
+      </c>
+      <c r="J12">
+        <v>439.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>257.83</v>
+      </c>
+      <c r="E13">
+        <v>-76.26000000000001</v>
+      </c>
+      <c r="F13">
+        <v>-159.94</v>
+      </c>
+      <c r="G13">
+        <v>30.42</v>
+      </c>
+      <c r="H13">
+        <v>52.05</v>
+      </c>
+      <c r="I13">
+        <v>439.58</v>
+      </c>
+      <c r="J13">
+        <v>491.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>287</v>
+      </c>
+      <c r="D14">
+        <v>235.7</v>
+      </c>
+      <c r="E14">
+        <v>-29.7</v>
+      </c>
+      <c r="F14">
+        <v>-73.7</v>
+      </c>
+      <c r="G14">
+        <v>27.7</v>
+      </c>
+      <c r="H14">
+        <v>160</v>
+      </c>
+      <c r="I14">
+        <v>491.6</v>
+      </c>
+      <c r="J14">
+        <v>651.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>526</v>
+      </c>
+      <c r="D15">
+        <v>239.9</v>
+      </c>
+      <c r="E15">
+        <v>-12.2</v>
+      </c>
+      <c r="F15">
+        <v>-189.1</v>
+      </c>
+      <c r="G15">
+        <v>29.8</v>
+      </c>
+      <c r="H15">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="I15">
+        <v>651.6</v>
+      </c>
+      <c r="J15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>228.1</v>
+      </c>
+      <c r="E16">
+        <v>10.2</v>
+      </c>
+      <c r="F16">
+        <v>-288.1</v>
+      </c>
+      <c r="G16">
+        <v>29.6</v>
+      </c>
+      <c r="H16">
+        <v>-20.2</v>
+      </c>
+      <c r="I16">
+        <v>720</v>
+      </c>
+      <c r="J16">
+        <v>699.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>248</v>
+      </c>
+      <c r="D17">
+        <v>342</v>
+      </c>
+      <c r="E17">
+        <v>-55.3</v>
+      </c>
+      <c r="F17">
+        <v>-406.9</v>
+      </c>
+      <c r="G17">
+        <v>1.6</v>
+      </c>
+      <c r="H17">
+        <v>-118.6</v>
+      </c>
+      <c r="I17">
+        <v>702.2</v>
+      </c>
+      <c r="J17">
+        <v>583.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>278.1</v>
+      </c>
+      <c r="D18">
+        <v>648.5</v>
+      </c>
+      <c r="E18">
+        <v>-33.8</v>
+      </c>
+      <c r="F18">
+        <v>-43.6</v>
+      </c>
+      <c r="G18">
+        <v>-0.6</v>
+      </c>
+      <c r="H18">
+        <v>570.5</v>
+      </c>
+      <c r="I18">
+        <v>583.6</v>
+      </c>
+      <c r="J18">
+        <v>1154.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>569.1</v>
+      </c>
+      <c r="D19">
+        <v>301.4</v>
+      </c>
+      <c r="E19">
+        <v>-152.2</v>
+      </c>
+      <c r="F19">
+        <v>-428.1</v>
+      </c>
+      <c r="G19">
+        <v>-0.4</v>
+      </c>
+      <c r="H19">
+        <v>-279.3</v>
+      </c>
+      <c r="I19">
+        <v>1154.1</v>
+      </c>
+      <c r="J19">
+        <v>874.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>354.8</v>
+      </c>
+      <c r="D20">
+        <v>265.4</v>
+      </c>
+      <c r="E20">
+        <v>-697.8</v>
+      </c>
+      <c r="F20">
+        <v>-333.2</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>-759.6</v>
+      </c>
+      <c r="I20">
+        <v>874.8</v>
+      </c>
+      <c r="J20">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>29.31</v>
-      </c>
-      <c r="C2">
-        <v>29.01</v>
-      </c>
-      <c r="D2">
-        <v>-34.3</v>
-      </c>
-      <c r="E2">
-        <v>-0.95</v>
-      </c>
-      <c r="F2">
-        <v>-0.39</v>
-      </c>
-      <c r="G2">
-        <v>-5.85</v>
-      </c>
-      <c r="H2">
-        <v>31.18</v>
-      </c>
-      <c r="I2">
-        <v>25.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>35.14</v>
-      </c>
-      <c r="C3">
-        <v>29.96</v>
-      </c>
-      <c r="D3">
-        <v>-39.87</v>
-      </c>
-      <c r="E3">
-        <v>7.01</v>
-      </c>
-      <c r="F3">
-        <v>-0.29</v>
-      </c>
-      <c r="G3">
-        <v>-2.62</v>
-      </c>
-      <c r="H3">
-        <v>29.97</v>
-      </c>
-      <c r="I3">
-        <v>27.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>76.25</v>
-      </c>
-      <c r="C4">
-        <v>67.31</v>
-      </c>
-      <c r="D4">
-        <v>-64.02</v>
-      </c>
-      <c r="E4">
-        <v>14.1</v>
-      </c>
-      <c r="F4">
-        <v>0.88</v>
-      </c>
-      <c r="G4">
-        <v>18.27</v>
-      </c>
-      <c r="H4">
-        <v>25.97</v>
-      </c>
-      <c r="I4">
-        <v>44.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>72.02</v>
-      </c>
-      <c r="C5">
-        <v>52.13</v>
-      </c>
-      <c r="D5">
-        <v>-326.32</v>
-      </c>
-      <c r="E5">
-        <v>315.32</v>
-      </c>
-      <c r="F5">
-        <v>0.64</v>
-      </c>
-      <c r="G5">
-        <v>41.77</v>
-      </c>
-      <c r="H5">
-        <v>44.15</v>
-      </c>
-      <c r="I5">
-        <v>85.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>66.15000000000001</v>
-      </c>
-      <c r="C6">
-        <v>107.13</v>
-      </c>
-      <c r="D6">
-        <v>101.53</v>
-      </c>
-      <c r="E6">
-        <v>-27.51</v>
-      </c>
-      <c r="F6">
-        <v>3.18</v>
-      </c>
-      <c r="G6">
-        <v>184.33</v>
-      </c>
-      <c r="H6">
-        <v>85.92</v>
-      </c>
-      <c r="I6">
-        <v>270.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>154.83</v>
-      </c>
-      <c r="C7">
-        <v>129.38</v>
-      </c>
-      <c r="D7">
-        <v>-327.54</v>
-      </c>
-      <c r="E7">
-        <v>-26.2</v>
-      </c>
-      <c r="F7">
-        <v>1.76</v>
-      </c>
-      <c r="G7">
-        <v>-222.6</v>
-      </c>
-      <c r="H7">
-        <v>270.62</v>
-      </c>
-      <c r="I7">
-        <v>48.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>131.43</v>
-      </c>
-      <c r="C8">
-        <v>56.75</v>
-      </c>
-      <c r="D8">
-        <v>55.48</v>
-      </c>
-      <c r="E8">
-        <v>-10.62</v>
-      </c>
-      <c r="F8">
-        <v>4.83</v>
-      </c>
-      <c r="G8">
-        <v>106.45</v>
-      </c>
-      <c r="H8">
-        <v>185.89</v>
-      </c>
-      <c r="I8">
-        <v>292.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>222.84</v>
-      </c>
-      <c r="C9">
-        <v>111.55</v>
-      </c>
-      <c r="D9">
-        <v>1.09</v>
-      </c>
-      <c r="E9">
-        <v>-31.27</v>
-      </c>
-      <c r="F9">
-        <v>13.89</v>
-      </c>
-      <c r="G9">
-        <v>95.26000000000001</v>
-      </c>
-      <c r="H9">
-        <v>292.34</v>
-      </c>
-      <c r="I9">
-        <v>387.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>261.4</v>
-      </c>
-      <c r="C10">
-        <v>142.91</v>
-      </c>
-      <c r="D10">
-        <v>-86.79000000000001</v>
-      </c>
-      <c r="E10">
-        <v>-39.36</v>
-      </c>
-      <c r="F10">
-        <v>18.37</v>
-      </c>
-      <c r="G10">
-        <v>35.12</v>
-      </c>
-      <c r="H10">
-        <v>387.6</v>
-      </c>
-      <c r="I10">
-        <v>422.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>331.5</v>
-      </c>
-      <c r="C11">
-        <v>144</v>
-      </c>
-      <c r="D11">
-        <v>33.28</v>
-      </c>
-      <c r="E11">
-        <v>-47.23</v>
-      </c>
-      <c r="F11">
-        <v>25.68</v>
-      </c>
-      <c r="G11">
-        <v>155.73</v>
-      </c>
-      <c r="H11">
-        <v>422.72</v>
-      </c>
-      <c r="I11">
-        <v>578.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>343.05</v>
-      </c>
-      <c r="C12">
-        <v>213.75</v>
-      </c>
-      <c r="D12">
-        <v>-303.27</v>
-      </c>
-      <c r="E12">
-        <v>-72.38</v>
-      </c>
-      <c r="F12">
-        <v>23.03</v>
-      </c>
-      <c r="G12">
-        <v>-138.87</v>
-      </c>
-      <c r="H12">
-        <v>578.45</v>
-      </c>
-      <c r="I12">
-        <v>439.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>257.83</v>
-      </c>
-      <c r="D13">
-        <v>-76.26000000000001</v>
-      </c>
-      <c r="E13">
-        <v>-159.94</v>
-      </c>
-      <c r="F13">
-        <v>30.42</v>
-      </c>
-      <c r="G13">
-        <v>52.05</v>
-      </c>
-      <c r="H13">
-        <v>439.58</v>
-      </c>
-      <c r="I13">
-        <v>491.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>287</v>
-      </c>
-      <c r="C14">
-        <v>235.7</v>
-      </c>
-      <c r="D14">
-        <v>-29.7</v>
-      </c>
-      <c r="E14">
-        <v>-73.7</v>
-      </c>
-      <c r="F14">
-        <v>27.7</v>
-      </c>
-      <c r="G14">
-        <v>160</v>
-      </c>
-      <c r="H14">
-        <v>491.6</v>
-      </c>
-      <c r="I14">
-        <v>651.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>526</v>
-      </c>
-      <c r="C15">
-        <v>239.9</v>
-      </c>
-      <c r="D15">
-        <v>-12.2</v>
-      </c>
-      <c r="E15">
-        <v>-189.1</v>
-      </c>
-      <c r="F15">
-        <v>29.8</v>
-      </c>
-      <c r="G15">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="H15">
-        <v>651.6</v>
-      </c>
-      <c r="I15">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>228.1</v>
-      </c>
-      <c r="D16">
-        <v>10.2</v>
-      </c>
-      <c r="E16">
-        <v>-288.1</v>
-      </c>
-      <c r="F16">
-        <v>29.6</v>
-      </c>
-      <c r="G16">
-        <v>-20.2</v>
-      </c>
-      <c r="H16">
-        <v>720</v>
-      </c>
-      <c r="I16">
-        <v>699.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>248</v>
-      </c>
-      <c r="C17">
-        <v>342</v>
-      </c>
-      <c r="D17">
-        <v>-55.3</v>
-      </c>
-      <c r="E17">
-        <v>-406.9</v>
-      </c>
-      <c r="F17">
-        <v>1.6</v>
-      </c>
-      <c r="G17">
-        <v>-118.6</v>
-      </c>
-      <c r="H17">
-        <v>702.2</v>
-      </c>
-      <c r="I17">
-        <v>583.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>278.1</v>
-      </c>
-      <c r="C18">
-        <v>648.5</v>
-      </c>
-      <c r="D18">
-        <v>-33.8</v>
-      </c>
-      <c r="E18">
-        <v>-43.6</v>
-      </c>
-      <c r="F18">
-        <v>-0.6</v>
-      </c>
-      <c r="G18">
-        <v>570.5</v>
-      </c>
-      <c r="H18">
-        <v>583.6</v>
-      </c>
-      <c r="I18">
-        <v>1154.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>569.1</v>
-      </c>
-      <c r="C19">
-        <v>301.4</v>
-      </c>
-      <c r="D19">
-        <v>-152.2</v>
-      </c>
-      <c r="E19">
-        <v>-428.1</v>
-      </c>
-      <c r="F19">
-        <v>-0.4</v>
-      </c>
-      <c r="G19">
-        <v>-279.3</v>
-      </c>
-      <c r="H19">
-        <v>1154.1</v>
-      </c>
-      <c r="I19">
-        <v>874.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>354.8</v>
-      </c>
-      <c r="C20">
-        <v>265.4</v>
-      </c>
-      <c r="D20">
-        <v>-697.8</v>
-      </c>
-      <c r="E20">
-        <v>-333.2</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>-759.6</v>
-      </c>
-      <c r="H20">
-        <v>874.8</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>497.3</v>
+      </c>
+      <c r="D21">
+        <v>308.7</v>
+      </c>
+      <c r="E21">
+        <v>122.5</v>
+      </c>
+      <c r="F21">
+        <v>-358.5</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="I21">
         <v>115.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>497.3</v>
-      </c>
-      <c r="C21">
-        <v>308.7</v>
-      </c>
-      <c r="D21">
-        <v>122.5</v>
-      </c>
-      <c r="E21">
-        <v>-358.5</v>
-      </c>
-      <c r="F21">
-        <v>0.2</v>
-      </c>
-      <c r="G21">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="H21">
-        <v>115.2</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>188.1</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>153.8</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>153.8</v>
@@ -2328,66 +2421,69 @@
         <v>153.8</v>
       </c>
       <c r="E2">
+        <v>153.8</v>
+      </c>
+      <c r="F2">
         <v>3.02</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>156.82</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>63.09</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.01</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12.41</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>42.76</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>128.03</v>
-      </c>
-      <c r="M2">
-        <v>28.79</v>
       </c>
       <c r="N2">
         <v>28.79</v>
       </c>
       <c r="O2">
+        <v>28.79</v>
+      </c>
+      <c r="P2">
         <v>9.25</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-2.24</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.01</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>21.79</v>
-      </c>
-      <c r="S2">
-        <v>22.31</v>
       </c>
       <c r="T2">
         <v>22.31</v>
       </c>
       <c r="U2">
-        <v>15.15</v>
+        <v>22.31</v>
       </c>
       <c r="V2">
         <v>15.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>213.69</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>213.69</v>
@@ -2396,66 +2492,69 @@
         <v>213.69</v>
       </c>
       <c r="E3">
+        <v>213.69</v>
+      </c>
+      <c r="F3">
         <v>-0.03</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>213.66</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.050000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>89.45999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.01</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>13.93</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>63.38</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>179.79</v>
-      </c>
-      <c r="M3">
-        <v>33.87</v>
       </c>
       <c r="N3">
         <v>33.87</v>
       </c>
       <c r="O3">
+        <v>33.87</v>
+      </c>
+      <c r="P3">
         <v>6.5</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.79</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>6.76</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>27.11</v>
-      </c>
-      <c r="S3">
-        <v>28.38</v>
       </c>
       <c r="T3">
         <v>28.38</v>
       </c>
       <c r="U3">
-        <v>18.65</v>
+        <v>28.38</v>
       </c>
       <c r="V3">
         <v>18.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>344.61</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>344.61</v>
@@ -2464,66 +2563,69 @@
         <v>344.61</v>
       </c>
       <c r="E4">
+        <v>344.61</v>
+      </c>
+      <c r="F4">
         <v>8.869999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>353.49</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13.83</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>148.03</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.01</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>22.27</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88.33</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>278.75</v>
-      </c>
-      <c r="M4">
-        <v>74.73999999999999</v>
       </c>
       <c r="N4">
         <v>74.73999999999999</v>
       </c>
       <c r="O4">
+        <v>74.73999999999999</v>
+      </c>
+      <c r="P4">
         <v>10.01</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-0.13</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11.2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>63.53</v>
-      </c>
-      <c r="S4">
-        <v>65.05</v>
       </c>
       <c r="T4">
         <v>65.05</v>
       </c>
       <c r="U4">
-        <v>14.09</v>
+        <v>65.05</v>
       </c>
       <c r="V4">
         <v>14.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>435.19</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>435.19</v>
@@ -2532,66 +2634,69 @@
         <v>435.19</v>
       </c>
       <c r="E5">
+        <v>435.19</v>
+      </c>
+      <c r="F5">
         <v>18.66</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>453.84</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>13.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>212.68</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.48</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>34.3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>110.67</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>382.44</v>
-      </c>
-      <c r="M5">
-        <v>71.41</v>
       </c>
       <c r="N5">
         <v>71.41</v>
       </c>
       <c r="O5">
+        <v>71.41</v>
+      </c>
+      <c r="P5">
         <v>9.43</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2.5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>13.46</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>57.95</v>
-      </c>
-      <c r="S5">
-        <v>58.56</v>
       </c>
       <c r="T5">
         <v>58.56</v>
       </c>
       <c r="U5">
-        <v>11.23</v>
+        <v>58.56</v>
       </c>
       <c r="V5">
         <v>11.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>566.5700000000001</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>566.5700000000001</v>
@@ -2600,66 +2705,69 @@
         <v>566.5700000000001</v>
       </c>
       <c r="E6">
+        <v>566.5700000000001</v>
+      </c>
+      <c r="F6">
         <v>-23.92</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>542.65</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21.23</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>274.33</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.98</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42.66</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>126.97</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>477.55</v>
-      </c>
-      <c r="M6">
-        <v>65.09999999999999</v>
       </c>
       <c r="N6">
         <v>65.09999999999999</v>
       </c>
       <c r="O6">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="P6">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-17.41</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-4.71</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>69.81999999999999</v>
-      </c>
-      <c r="S6">
-        <v>70.86</v>
       </c>
       <c r="T6">
         <v>70.86</v>
       </c>
       <c r="U6">
-        <v>12.83</v>
+        <v>70.86</v>
       </c>
       <c r="V6">
         <v>12.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>561.8</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>561.8</v>
@@ -2668,66 +2776,69 @@
         <v>561.8</v>
       </c>
       <c r="E7">
+        <v>561.8</v>
+      </c>
+      <c r="F7">
         <v>42.46</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>604.26</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>22.93</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>282.38</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.09</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>40.71</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>97.81999999999999</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>452.65</v>
-      </c>
-      <c r="M7">
-        <v>151.62</v>
       </c>
       <c r="N7">
         <v>151.62</v>
       </c>
       <c r="O7">
+        <v>151.62</v>
+      </c>
+      <c r="P7">
         <v>8.039999999999999</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>15.49</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>23.53</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>128.09</v>
-      </c>
-      <c r="S7">
-        <v>126.76</v>
       </c>
       <c r="T7">
         <v>126.76</v>
       </c>
       <c r="U7">
-        <v>22.84</v>
+        <v>126.76</v>
       </c>
       <c r="V7">
         <v>22.84</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>22.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>647.67</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>647.67</v>
@@ -2736,46 +2847,46 @@
         <v>647.67</v>
       </c>
       <c r="E8">
+        <v>647.67</v>
+      </c>
+      <c r="F8">
         <v>29.76</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>677.42</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>332.09</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.08</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>37.55</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>178.56</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>548.28</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>129.14</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>131.43</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>25.02</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.98</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>13.55</v>
-      </c>
-      <c r="R8">
-        <v>117.88</v>
       </c>
       <c r="S8">
         <v>117.88</v>
@@ -2784,66 +2895,69 @@
         <v>117.88</v>
       </c>
       <c r="U8">
+        <v>117.88</v>
+      </c>
+      <c r="V8">
         <v>10.6</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>10.58</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>863.76</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>863.76</v>
       </c>
       <c r="D9">
+        <v>863.76</v>
+      </c>
+      <c r="E9">
         <v>863.8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>53.58</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>917.38</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>424.78</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.16</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>228.04</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>694.54</v>
-      </c>
-      <c r="M9">
-        <v>222.84</v>
       </c>
       <c r="N9">
         <v>222.84</v>
       </c>
       <c r="O9">
+        <v>222.84</v>
+      </c>
+      <c r="P9">
         <v>47.73</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-7.22</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>64.23999999999999</v>
-      </c>
-      <c r="R9">
-        <v>158.6</v>
       </c>
       <c r="S9">
         <v>158.6</v>
@@ -2852,18 +2966,21 @@
         <v>158.6</v>
       </c>
       <c r="U9">
-        <v>14.24</v>
+        <v>158.6</v>
       </c>
       <c r="V9">
         <v>14.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1051.56</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>1051.56</v>
@@ -2872,46 +2989,46 @@
         <v>1051.56</v>
       </c>
       <c r="E10">
+        <v>1051.56</v>
+      </c>
+      <c r="F10">
         <v>37.31</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1088.87</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>499.47</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.09</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>56.32</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>269.77</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>825.65</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>263.22</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>261.4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>69.81</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7.15</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>77.06</v>
-      </c>
-      <c r="R10">
-        <v>184.34</v>
       </c>
       <c r="S10">
         <v>184.34</v>
@@ -2920,18 +3037,21 @@
         <v>184.34</v>
       </c>
       <c r="U10">
+        <v>184.34</v>
+      </c>
+      <c r="V10">
         <v>16.53</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1224.49</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>1224.49</v>
@@ -2940,46 +3060,46 @@
         <v>1224.49</v>
       </c>
       <c r="E11">
+        <v>1224.49</v>
+      </c>
+      <c r="F11">
         <v>52.43</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1276.92</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>571.65</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.36</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>64.87</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>308.54</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>945.41</v>
-      </c>
-      <c r="M11">
-        <v>331.5</v>
       </c>
       <c r="N11">
         <v>331.5</v>
       </c>
       <c r="O11">
+        <v>331.5</v>
+      </c>
+      <c r="P11">
         <v>76.31</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.28</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>76.59</v>
-      </c>
-      <c r="R11">
-        <v>254.91</v>
       </c>
       <c r="S11">
         <v>254.91</v>
@@ -2988,18 +3108,21 @@
         <v>254.91</v>
       </c>
       <c r="U11">
+        <v>254.91</v>
+      </c>
+      <c r="V11">
         <v>22.81</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>22.71</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1294.01</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1294.01</v>
@@ -3008,46 +3131,46 @@
         <v>1294.01</v>
       </c>
       <c r="E12">
+        <v>1294.01</v>
+      </c>
+      <c r="F12">
         <v>102.93</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1396.95</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>643.9400000000001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.51</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>61.81</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>347.64</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1053.9</v>
-      </c>
-      <c r="M12">
-        <v>343.05</v>
       </c>
       <c r="N12">
         <v>343.05</v>
       </c>
       <c r="O12">
+        <v>343.05</v>
+      </c>
+      <c r="P12">
         <v>70.76000000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>71.89</v>
-      </c>
-      <c r="R12">
-        <v>271.16</v>
       </c>
       <c r="S12">
         <v>271.16</v>
@@ -3056,18 +3179,21 @@
         <v>271.16</v>
       </c>
       <c r="U12">
+        <v>271.16</v>
+      </c>
+      <c r="V12">
         <v>24.17</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>24.09</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1245.56</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>1245.56</v>
@@ -3076,46 +3202,46 @@
         <v>1245.56</v>
       </c>
       <c r="E13">
+        <v>1245.56</v>
+      </c>
+      <c r="F13">
         <v>113.49</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1359.06</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>630.3099999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.23</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>68.8</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>365.24</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1064.59</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>294.47</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>287.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>61.45</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-4.57</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>53.85</v>
-      </c>
-      <c r="R13">
-        <v>233.45</v>
       </c>
       <c r="S13">
         <v>233.45</v>
@@ -3124,18 +3250,21 @@
         <v>233.45</v>
       </c>
       <c r="U13">
+        <v>233.45</v>
+      </c>
+      <c r="V13">
         <v>20.76</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>20.73</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1292</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1292</v>
@@ -3144,46 +3273,46 @@
         <v>1292</v>
       </c>
       <c r="E14">
+        <v>1292</v>
+      </c>
+      <c r="F14">
         <v>81.59999999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1373.6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>652</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.6</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>54</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>359.9</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1066.5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>307.1</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>287</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>60.1</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-10</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>50.1</v>
-      </c>
-      <c r="R14">
-        <v>236.9</v>
       </c>
       <c r="S14">
         <v>236.9</v>
@@ -3192,18 +3321,21 @@
         <v>236.9</v>
       </c>
       <c r="U14">
+        <v>236.9</v>
+      </c>
+      <c r="V14">
         <v>21.05</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>21.03</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1439.7</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1439.7</v>
@@ -3212,46 +3344,46 @@
         <v>1439.7</v>
       </c>
       <c r="E15">
+        <v>1439.7</v>
+      </c>
+      <c r="F15">
         <v>192.3</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1632</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>675.8</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.6</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>50.8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>389.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1116.3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>515.7</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>526</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>128.5</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-4.3</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>124.2</v>
-      </c>
-      <c r="R15">
-        <v>401.8</v>
       </c>
       <c r="S15">
         <v>401.8</v>
@@ -3260,18 +3392,21 @@
         <v>401.8</v>
       </c>
       <c r="U15">
+        <v>401.8</v>
+      </c>
+      <c r="V15">
         <v>35.69</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>35.54</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1614.9</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1614.9</v>
@@ -3280,46 +3415,46 @@
         <v>1614.9</v>
       </c>
       <c r="E16">
+        <v>1614.9</v>
+      </c>
+      <c r="F16">
         <v>162.1</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1777</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>754.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.1</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>50.9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>429.2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1235.8</v>
-      </c>
-      <c r="M16">
-        <v>541.2</v>
       </c>
       <c r="N16">
         <v>541.2</v>
       </c>
       <c r="O16">
+        <v>541.2</v>
+      </c>
+      <c r="P16">
         <v>117.9</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-17.4</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>100.5</v>
-      </c>
-      <c r="R16">
-        <v>440.7</v>
       </c>
       <c r="S16">
         <v>440.7</v>
@@ -3328,18 +3463,21 @@
         <v>440.7</v>
       </c>
       <c r="U16">
+        <v>440.7</v>
+      </c>
+      <c r="V16">
         <v>39.07</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>39.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>1523.1</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1523.1</v>
@@ -3348,46 +3486,46 @@
         <v>1523.1</v>
       </c>
       <c r="E17">
+        <v>1523.1</v>
+      </c>
+      <c r="F17">
         <v>126.7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1649.8</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>767.2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>14.8</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>99</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>403.4</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1315.5</v>
-      </c>
-      <c r="M17">
-        <v>334.3</v>
       </c>
       <c r="N17">
         <v>334.3</v>
       </c>
       <c r="O17">
+        <v>334.3</v>
+      </c>
+      <c r="P17">
         <v>74.3</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>12</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>86.3</v>
-      </c>
-      <c r="R17">
-        <v>248</v>
       </c>
       <c r="S17">
         <v>248</v>
@@ -3396,18 +3534,21 @@
         <v>248</v>
       </c>
       <c r="U17">
-        <v>22.56</v>
+        <v>248</v>
       </c>
       <c r="V17">
         <v>22.56</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1379.9</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1379.9</v>
@@ -3416,46 +3557,46 @@
         <v>1379.9</v>
       </c>
       <c r="E18">
+        <v>1379.9</v>
+      </c>
+      <c r="F18">
         <v>119.8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1499.7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>723.5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>14.6</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>96.2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>302</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1147.7</v>
-      </c>
-      <c r="M18">
-        <v>352</v>
       </c>
       <c r="N18">
         <v>352</v>
       </c>
       <c r="O18">
+        <v>352</v>
+      </c>
+      <c r="P18">
         <v>75.5</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-1.6</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>73.90000000000001</v>
-      </c>
-      <c r="R18">
-        <v>278.1</v>
       </c>
       <c r="S18">
         <v>278.1</v>
@@ -3464,18 +3605,21 @@
         <v>278.1</v>
       </c>
       <c r="U18">
+        <v>278.1</v>
+      </c>
+      <c r="V18">
         <v>25.29</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>25.27</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>1750.5</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1750.5</v>
@@ -3484,46 +3628,46 @@
         <v>1750.5</v>
       </c>
       <c r="E19">
+        <v>1750.5</v>
+      </c>
+      <c r="F19">
         <v>275.3</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2025.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>895.4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10.4</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>96.7</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>342.3</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1344.8</v>
-      </c>
-      <c r="M19">
-        <v>681</v>
       </c>
       <c r="N19">
         <v>681</v>
       </c>
       <c r="O19">
+        <v>681</v>
+      </c>
+      <c r="P19">
         <v>116.2</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-4.3</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>111.9</v>
-      </c>
-      <c r="R19">
-        <v>569.1</v>
       </c>
       <c r="S19">
         <v>569.1</v>
@@ -3532,18 +3676,21 @@
         <v>569.1</v>
       </c>
       <c r="U19">
+        <v>569.1</v>
+      </c>
+      <c r="V19">
         <v>52.03</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>51.8</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>2227.9</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>2227.9</v>
@@ -3552,46 +3699,46 @@
         <v>2227.9</v>
       </c>
       <c r="E20">
+        <v>2227.9</v>
+      </c>
+      <c r="F20">
         <v>82.2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2310.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1196.4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>16.6</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>113.5</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>521.3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1847.8</v>
-      </c>
-      <c r="M20">
-        <v>462.3</v>
       </c>
       <c r="N20">
         <v>462.3</v>
       </c>
       <c r="O20">
+        <v>462.3</v>
+      </c>
+      <c r="P20">
         <v>109.9</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-2.4</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>107.5</v>
-      </c>
-      <c r="R20">
-        <v>354.8</v>
       </c>
       <c r="S20">
         <v>354.8</v>
@@ -3600,18 +3747,21 @@
         <v>354.8</v>
       </c>
       <c r="U20">
+        <v>354.8</v>
+      </c>
+      <c r="V20">
         <v>32.44</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>32.22</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2461.4</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>2461.4</v>
@@ -3620,46 +3770,46 @@
         <v>2461.4</v>
       </c>
       <c r="E21">
+        <v>2461.4</v>
+      </c>
+      <c r="F21">
         <v>75.09999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2536.5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1326.1</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>22</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>94.8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>438.6</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1881.5</v>
-      </c>
-      <c r="M21">
-        <v>655</v>
       </c>
       <c r="N21">
         <v>655</v>
       </c>
       <c r="O21">
+        <v>655</v>
+      </c>
+      <c r="P21">
         <v>160.7</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-3</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>157.7</v>
-      </c>
-      <c r="R21">
-        <v>497.3</v>
       </c>
       <c r="S21">
         <v>497.3</v>
@@ -3668,9 +3818,12 @@
         <v>497.3</v>
       </c>
       <c r="U21">
+        <v>497.3</v>
+      </c>
+      <c r="V21">
         <v>45.33</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>44.94</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>315.07</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>316.41</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>309.44</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>313.15</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>324.21</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>328.59</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>328.06</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>341.94</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>321.56</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>297.84</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>284.22</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>305.01</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>328.74</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>329.77</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>328.5</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>331.1</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>352.8</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>377.5</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>378.3</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>383.7</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>407.8</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>413</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>410.4</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>372.6</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>403.6</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>397.9</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>349</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>340.1</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>350.3</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>350.5</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>339</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>388.4</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>429.4</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>455.9</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>476.8</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>508.8</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>516.6</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>605.3</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>597.2</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>624</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>628</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>597.6</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>611.8</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>569.6</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>623.3</v>
@@ -6960,1003 +7113,1054 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>104.43</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>27.98</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>19.56</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>19.55</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15.15</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26.79</v>
-      </c>
-      <c r="H2">
-        <v>18.72</v>
       </c>
       <c r="I2">
         <v>18.72</v>
       </c>
       <c r="J2">
+        <v>18.72</v>
+      </c>
+      <c r="K2">
         <v>14.5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>12.82</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10.91</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>9.9</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6.36</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>90.09999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>383.07</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>9.289999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>140.41</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>31.42</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>22.26</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>22.25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18.65</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.37</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15.85</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.84</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>13.27</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.41</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11.3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>12.25</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8.220000000000001</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>87.75</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>774.3200000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>16.2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>74.67</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>21.02</v>
-      </c>
-      <c r="D4">
-        <v>16.19</v>
       </c>
       <c r="E4">
         <v>16.19</v>
       </c>
       <c r="F4">
+        <v>16.19</v>
+      </c>
+      <c r="G4">
         <v>14.09</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.15</v>
-      </c>
-      <c r="H4">
-        <v>21.68</v>
       </c>
       <c r="I4">
         <v>21.68</v>
       </c>
       <c r="J4">
+        <v>21.68</v>
+      </c>
+      <c r="K4">
         <v>18.87</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>23.79</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>18.66</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.06</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7.99</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5.95</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>92.01000000000001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1640.6</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>16.91</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>83.48</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>20.76</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14.17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13.7</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11.23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>24.86</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>16.97</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>16.4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13.45</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11.09</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.96</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12.55</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7.91</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>87.45</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1460.47</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>102.58</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20.05</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12.33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>11.79</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>12.83</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19.54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12.01</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>11.49</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10.27</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8.220000000000001</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.03</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>11.76</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7.34</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>88.23999999999999</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>215.48</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>101.23</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>34.67</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>27.34</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27.32</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>22.84</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>34.25</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>26.98</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>22.56</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15.76</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>13.09</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8.75</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6.62</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>91.25</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1839.68</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>9.56</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>58.2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>14.99</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>11.61</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11.81</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>25.74</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>19.95</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20.29</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>18.2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12.98</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>11.52</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>11.79</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8.94</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>88.20999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1495.46</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8.970000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>77.53</v>
+      </c>
+      <c r="D9">
+        <v>23.75</v>
+      </c>
+      <c r="E9">
+        <v>20.05</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>77.53</v>
-      </c>
-      <c r="C9">
-        <v>23.75</v>
-      </c>
-      <c r="D9">
-        <v>20.05</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>14.23</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.62</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>25.86</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>25.79</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>18.36</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15.32</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13.24</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>17.56</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>13.94</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>82.44</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1273.71</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.81</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>94.22</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>28.64</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>23.59</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23.42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16.52</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.39</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>25.03</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>24.85</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17.53</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>15.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>13.31</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>27.22</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>20.85</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>72.78</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1463.52</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>4.58</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>109.36</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>35.43</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>29.64</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>29.61</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>22.77</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>32.39</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>27.1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>27.07</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>20.81</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>18.39</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>15.75</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>21.93</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>17.48</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>78.06999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3080.45</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7.76</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>115.17</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>36.08</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>30.58</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>30.53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>24.13</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>26.54</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>26.51</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20.95</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>17.15</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>14.73</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>32.85</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>26.75</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>67.15000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5216.05</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>12.87</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>110.73</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>32.32</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>26.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25.54</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20.75</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.18</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>23.65</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>23.06</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18.74</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>13.87</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>12.11</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>33.72</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>26.05</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>66.28</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4289.42</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>11.8</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>114.74</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>32.12</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>27.33</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>25.49</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>21.04</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>27.99</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23.81</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>22.21</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>18.33</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>12.58</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10.95</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>31.44</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>25.61</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>68.56</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4624.23</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>12.78</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>127.86</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>50.36</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>45.85</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>46.71</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>35.68</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>39.39</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>35.86</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>36.53</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>27.9</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>19.49</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>16.73</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>39.22</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>34.82</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>60.78</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7029.29</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>12.4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>146.28</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>53.73</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>49.12</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>49.02</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>39.92</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>36.73</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>33.58</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>33.51</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>27.28</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>19.7</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>17.08</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>25.64</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22.98</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>74.36</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>6440.67</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>10.86</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>138.46</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>40.74</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>31.74</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>30.39</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>22.55</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>29.42</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>22.92</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>21.94</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>16.28</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>11.81</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>9.27</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>106.41</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>76.05</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-6.41</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1942.45</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4.33</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>125.45</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>42.07</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>33.33</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>32</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>25.28</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>33.53</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>26.56</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>25.5</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>20.15</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>11.6</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9.15</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -7968,177 +8172,189 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>5980.3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>12.92</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>158.56</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>71.39</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>62.63</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>61.68</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>51.55</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>45.02</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>39.49</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>38.9</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>32.51</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>21.89</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>17.86</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>51.87</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>44.33</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>48.13</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>9382.92</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>11.91</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>201.44</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>53.56</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>43.3</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>41.8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>32.08</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>26.59</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.49</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20.75</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>15.92</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.12</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10.44</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>74.23</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>56.24</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>25.77</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>10861.75</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>18.34</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>221.75</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>69.53</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>60.99</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>59.01</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>44.8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31.35</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>26.61</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>20.2</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>16.94</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13.67</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>61.53</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>51.68</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>38.47</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>21940.66</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>28.43</v>
       </c>
     </row>
